--- a/planlha_supply2.xlsx
+++ b/planlha_supply2.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -503,8 +499,10 @@
           <t>U0091005</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44743</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>32</v>
@@ -547,8 +545,10 @@
           <t>U0091005</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>44774</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>40</v>
@@ -591,8 +591,10 @@
           <t>U0091005</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>44805</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>54</v>
@@ -635,8 +637,10 @@
           <t>U0091005</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>44835</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>40</v>
@@ -679,8 +683,10 @@
           <t>U0091005</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>44866</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>46</v>
@@ -723,8 +729,10 @@
           <t>U0091005</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>44896</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>58</v>
@@ -767,8 +775,10 @@
           <t>U0091005</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>44927</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>18.54</v>
@@ -811,8 +821,10 @@
           <t>U0091005</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>44958</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>74</v>
@@ -855,8 +867,10 @@
           <t>U0091005</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>44986</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>80</v>
@@ -899,8 +913,10 @@
           <t>U0091005</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45017</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>44</v>
@@ -943,8 +959,10 @@
           <t>U0091005</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45047</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>30</v>
@@ -989,8 +1007,10 @@
           <t>U1211216</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>44743</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1033,8 +1053,10 @@
           <t>U1211216</t>
         </is>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>44774</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>5</v>
@@ -1077,8 +1099,10 @@
           <t>U1211216</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>44805</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1121,8 +1145,10 @@
           <t>U1211216</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>44835</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -1165,8 +1191,10 @@
           <t>U1211216</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>44866</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1209,8 +1237,10 @@
           <t>U1211216</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>44896</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>5</v>
@@ -1253,8 +1283,10 @@
           <t>U1211216</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>44927</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1297,8 +1329,10 @@
           <t>U1211216</t>
         </is>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>44958</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1341,8 +1375,10 @@
           <t>U1211216</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>44986</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1385,8 +1421,10 @@
           <t>U1211216</t>
         </is>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45017</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>5</v>
@@ -1429,8 +1467,10 @@
           <t>U1211216</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45047</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1475,8 +1515,10 @@
           <t>FC010014</t>
         </is>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>44743</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1519,8 +1561,10 @@
           <t>FC010014</t>
         </is>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>44774</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1563,8 +1607,10 @@
           <t>FC010014</t>
         </is>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>44805</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1607,8 +1653,10 @@
           <t>FC010014</t>
         </is>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>44835</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1651,8 +1699,10 @@
           <t>FC010014</t>
         </is>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>44866</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1695,8 +1745,10 @@
           <t>FC010014</t>
         </is>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>44896</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1739,8 +1791,10 @@
           <t>FC010014</t>
         </is>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>44927</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1783,8 +1837,10 @@
           <t>FC010014</t>
         </is>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>44958</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1827,8 +1883,10 @@
           <t>FC010014</t>
         </is>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>44986</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1871,8 +1929,10 @@
           <t>FC010014</t>
         </is>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45017</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1915,8 +1975,10 @@
           <t>FC010014</t>
         </is>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45047</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1961,8 +2023,10 @@
           <t>U1222239</t>
         </is>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>44743</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D35" t="n">
         <v>90</v>
@@ -2005,8 +2069,10 @@
           <t>U1222239</t>
         </is>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>44774</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D36" t="n">
         <v>135</v>
@@ -2049,8 +2115,10 @@
           <t>U1222239</t>
         </is>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>44805</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D37" t="n">
         <v>150</v>
@@ -2093,8 +2161,10 @@
           <t>U1222239</t>
         </is>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>44835</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D38" t="n">
         <v>280</v>
@@ -2137,8 +2207,10 @@
           <t>U1222239</t>
         </is>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>44866</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D39" t="n">
         <v>260</v>
@@ -2181,8 +2253,10 @@
           <t>U1222239</t>
         </is>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>44896</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D40" t="n">
         <v>250</v>
@@ -2225,8 +2299,10 @@
           <t>U1222239</t>
         </is>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>44927</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D41" t="n">
         <v>90</v>
@@ -2269,8 +2345,10 @@
           <t>U1222239</t>
         </is>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>44958</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D42" t="n">
         <v>60</v>
@@ -2313,8 +2391,10 @@
           <t>U1222239</t>
         </is>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>44986</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D43" t="n">
         <v>180</v>
@@ -2357,8 +2437,10 @@
           <t>U1222239</t>
         </is>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>45017</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D44" t="n">
         <v>90</v>
@@ -2401,8 +2483,10 @@
           <t>U1222239</t>
         </is>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>45047</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D45" t="n">
         <v>100</v>
@@ -2447,8 +2531,10 @@
           <t>U6722305</t>
         </is>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>44743</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2491,8 +2577,10 @@
           <t>U6722305</t>
         </is>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>44774</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -2535,8 +2623,10 @@
           <t>U6722305</t>
         </is>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>44805</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -2579,8 +2669,10 @@
           <t>U6722305</t>
         </is>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>44835</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -2623,8 +2715,10 @@
           <t>U6722305</t>
         </is>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>44866</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -2667,8 +2761,10 @@
           <t>U6722305</t>
         </is>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>44896</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -2711,8 +2807,10 @@
           <t>U6722305</t>
         </is>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>44927</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2755,8 +2853,10 @@
           <t>U6722305</t>
         </is>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>44958</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -2799,8 +2899,10 @@
           <t>U6722305</t>
         </is>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>44986</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -2843,8 +2945,10 @@
           <t>U6722305</t>
         </is>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>45017</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -2887,8 +2991,10 @@
           <t>U6722305</t>
         </is>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>45047</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2933,8 +3039,10 @@
           <t>U1222240</t>
         </is>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>44743</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D57" t="n">
         <v>385</v>
@@ -2977,8 +3085,10 @@
           <t>U1222240</t>
         </is>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>44774</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D58" t="n">
         <v>420</v>
@@ -3021,8 +3131,10 @@
           <t>U1222240</t>
         </is>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>44805</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D59" t="n">
         <v>450</v>
@@ -3065,8 +3177,10 @@
           <t>U1222240</t>
         </is>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>44835</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D60" t="n">
         <v>420</v>
@@ -3109,8 +3223,10 @@
           <t>U1222240</t>
         </is>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>44866</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D61" t="n">
         <v>430</v>
@@ -3153,8 +3269,10 @@
           <t>U1222240</t>
         </is>
       </c>
-      <c r="C62" s="2" t="n">
-        <v>44896</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D62" t="n">
         <v>400</v>
@@ -3197,8 +3315,10 @@
           <t>U1222240</t>
         </is>
       </c>
-      <c r="C63" s="2" t="n">
-        <v>44927</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D63" t="n">
         <v>200</v>
@@ -3241,8 +3361,10 @@
           <t>U1222240</t>
         </is>
       </c>
-      <c r="C64" s="2" t="n">
-        <v>44958</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D64" t="n">
         <v>320</v>
@@ -3285,8 +3407,10 @@
           <t>U1222240</t>
         </is>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>44986</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D65" t="n">
         <v>520</v>
@@ -3329,8 +3453,10 @@
           <t>U1222240</t>
         </is>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>45017</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D66" t="n">
         <v>282</v>
@@ -3373,8 +3499,10 @@
           <t>U1222240</t>
         </is>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>45047</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D67" t="n">
         <v>300</v>
@@ -3419,8 +3547,10 @@
           <t>U1222238</t>
         </is>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>44743</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D68" t="n">
         <v>10</v>
@@ -3463,8 +3593,10 @@
           <t>U1222238</t>
         </is>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>44774</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D69" t="n">
         <v>25</v>
@@ -3507,8 +3639,10 @@
           <t>U1222238</t>
         </is>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>44805</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D70" t="n">
         <v>25</v>
@@ -3551,8 +3685,10 @@
           <t>U1222238</t>
         </is>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>44835</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D71" t="n">
         <v>30</v>
@@ -3595,8 +3731,10 @@
           <t>U1222238</t>
         </is>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>44866</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D72" t="n">
         <v>35</v>
@@ -3639,8 +3777,10 @@
           <t>U1222238</t>
         </is>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>44896</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D73" t="n">
         <v>35</v>
@@ -3683,8 +3823,10 @@
           <t>U1222238</t>
         </is>
       </c>
-      <c r="C74" s="2" t="n">
-        <v>44927</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D74" t="n">
         <v>18.05</v>
@@ -3727,8 +3869,10 @@
           <t>U1222238</t>
         </is>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>44958</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D75" t="n">
         <v>24.7</v>
@@ -3771,8 +3915,10 @@
           <t>U1222238</t>
         </is>
       </c>
-      <c r="C76" s="2" t="n">
-        <v>44986</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D76" t="n">
         <v>12.35</v>
@@ -3815,8 +3961,10 @@
           <t>U1222238</t>
         </is>
       </c>
-      <c r="C77" s="2" t="n">
-        <v>45017</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D77" t="n">
         <v>21.85</v>
@@ -3859,8 +4007,10 @@
           <t>U1222238</t>
         </is>
       </c>
-      <c r="C78" s="2" t="n">
-        <v>45047</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D78" t="n">
         <v>19</v>
@@ -3905,8 +4055,10 @@
           <t>U1211136</t>
         </is>
       </c>
-      <c r="C79" s="2" t="n">
-        <v>44743</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D79" t="n">
         <v>20</v>
@@ -3949,8 +4101,10 @@
           <t>U1211136</t>
         </is>
       </c>
-      <c r="C80" s="2" t="n">
-        <v>44774</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D80" t="n">
         <v>30</v>
@@ -3993,8 +4147,10 @@
           <t>U1211136</t>
         </is>
       </c>
-      <c r="C81" s="2" t="n">
-        <v>44805</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D81" t="n">
         <v>35</v>
@@ -4037,8 +4193,10 @@
           <t>U1211136</t>
         </is>
       </c>
-      <c r="C82" s="2" t="n">
-        <v>44835</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D82" t="n">
         <v>50</v>
@@ -4081,8 +4239,10 @@
           <t>U1211136</t>
         </is>
       </c>
-      <c r="C83" s="2" t="n">
-        <v>44866</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D83" t="n">
         <v>35</v>
@@ -4125,8 +4285,10 @@
           <t>U1211136</t>
         </is>
       </c>
-      <c r="C84" s="2" t="n">
-        <v>44896</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D84" t="n">
         <v>40</v>
@@ -4169,8 +4331,10 @@
           <t>U1211136</t>
         </is>
       </c>
-      <c r="C85" s="2" t="n">
-        <v>44927</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D85" t="n">
         <v>20</v>
@@ -4213,8 +4377,10 @@
           <t>U1211136</t>
         </is>
       </c>
-      <c r="C86" s="2" t="n">
-        <v>44958</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D86" t="n">
         <v>20</v>
@@ -4257,8 +4423,10 @@
           <t>U1211136</t>
         </is>
       </c>
-      <c r="C87" s="2" t="n">
-        <v>44986</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D87" t="n">
         <v>25</v>
@@ -4301,8 +4469,10 @@
           <t>U1211136</t>
         </is>
       </c>
-      <c r="C88" s="2" t="n">
-        <v>45017</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D88" t="n">
         <v>20</v>
@@ -4345,8 +4515,10 @@
           <t>U1211136</t>
         </is>
       </c>
-      <c r="C89" s="2" t="n">
-        <v>45047</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D89" t="n">
         <v>21</v>
@@ -4391,8 +4563,10 @@
           <t>U1211338</t>
         </is>
       </c>
-      <c r="C90" s="2" t="n">
-        <v>44743</v>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -4435,8 +4609,10 @@
           <t>U1211338</t>
         </is>
       </c>
-      <c r="C91" s="2" t="n">
-        <v>44774</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -4479,8 +4655,10 @@
           <t>U1211338</t>
         </is>
       </c>
-      <c r="C92" s="2" t="n">
-        <v>44805</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -4523,8 +4701,10 @@
           <t>U1211338</t>
         </is>
       </c>
-      <c r="C93" s="2" t="n">
-        <v>44835</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -4567,8 +4747,10 @@
           <t>U1211338</t>
         </is>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>44866</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -4611,8 +4793,10 @@
           <t>U1211338</t>
         </is>
       </c>
-      <c r="C95" s="2" t="n">
-        <v>44896</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -4655,8 +4839,10 @@
           <t>U1211338</t>
         </is>
       </c>
-      <c r="C96" s="2" t="n">
-        <v>44927</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -4699,8 +4885,10 @@
           <t>U1211338</t>
         </is>
       </c>
-      <c r="C97" s="2" t="n">
-        <v>44958</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -4743,8 +4931,10 @@
           <t>U1211338</t>
         </is>
       </c>
-      <c r="C98" s="2" t="n">
-        <v>44986</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -4787,8 +4977,10 @@
           <t>U1211338</t>
         </is>
       </c>
-      <c r="C99" s="2" t="n">
-        <v>45017</v>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -4831,8 +5023,10 @@
           <t>U1211338</t>
         </is>
       </c>
-      <c r="C100" s="2" t="n">
-        <v>45047</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -4877,8 +5071,10 @@
           <t>U1211320</t>
         </is>
       </c>
-      <c r="C101" s="2" t="n">
-        <v>44743</v>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -4921,8 +5117,10 @@
           <t>U1211320</t>
         </is>
       </c>
-      <c r="C102" s="2" t="n">
-        <v>44774</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -4965,8 +5163,10 @@
           <t>U1211320</t>
         </is>
       </c>
-      <c r="C103" s="2" t="n">
-        <v>44805</v>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -5009,8 +5209,10 @@
           <t>U1211320</t>
         </is>
       </c>
-      <c r="C104" s="2" t="n">
-        <v>44835</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -5053,8 +5255,10 @@
           <t>U1211320</t>
         </is>
       </c>
-      <c r="C105" s="2" t="n">
-        <v>44866</v>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -5097,8 +5301,10 @@
           <t>U1211320</t>
         </is>
       </c>
-      <c r="C106" s="2" t="n">
-        <v>44896</v>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -5141,8 +5347,10 @@
           <t>U1211320</t>
         </is>
       </c>
-      <c r="C107" s="2" t="n">
-        <v>44927</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -5185,8 +5393,10 @@
           <t>U1211320</t>
         </is>
       </c>
-      <c r="C108" s="2" t="n">
-        <v>44958</v>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -5229,8 +5439,10 @@
           <t>U1211320</t>
         </is>
       </c>
-      <c r="C109" s="2" t="n">
-        <v>44986</v>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -5273,8 +5485,10 @@
           <t>U1211320</t>
         </is>
       </c>
-      <c r="C110" s="2" t="n">
-        <v>45017</v>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -5317,8 +5531,10 @@
           <t>U1211320</t>
         </is>
       </c>
-      <c r="C111" s="2" t="n">
-        <v>45047</v>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -5363,8 +5579,10 @@
           <t>U1262017</t>
         </is>
       </c>
-      <c r="C112" s="2" t="n">
-        <v>44743</v>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -5407,8 +5625,10 @@
           <t>U1262017</t>
         </is>
       </c>
-      <c r="C113" s="2" t="n">
-        <v>44774</v>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -5451,8 +5671,10 @@
           <t>U1262017</t>
         </is>
       </c>
-      <c r="C114" s="2" t="n">
-        <v>44805</v>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -5495,8 +5717,10 @@
           <t>U1262017</t>
         </is>
       </c>
-      <c r="C115" s="2" t="n">
-        <v>44835</v>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -5539,8 +5763,10 @@
           <t>U1262017</t>
         </is>
       </c>
-      <c r="C116" s="2" t="n">
-        <v>44866</v>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -5583,8 +5809,10 @@
           <t>U1262017</t>
         </is>
       </c>
-      <c r="C117" s="2" t="n">
-        <v>44896</v>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -5627,8 +5855,10 @@
           <t>U1262017</t>
         </is>
       </c>
-      <c r="C118" s="2" t="n">
-        <v>44927</v>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -5671,8 +5901,10 @@
           <t>U1262017</t>
         </is>
       </c>
-      <c r="C119" s="2" t="n">
-        <v>44958</v>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -5715,8 +5947,10 @@
           <t>U1262017</t>
         </is>
       </c>
-      <c r="C120" s="2" t="n">
-        <v>44986</v>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -5759,8 +5993,10 @@
           <t>U1262017</t>
         </is>
       </c>
-      <c r="C121" s="2" t="n">
-        <v>45017</v>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -5803,8 +6039,10 @@
           <t>U1262017</t>
         </is>
       </c>
-      <c r="C122" s="2" t="n">
-        <v>45047</v>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -5849,8 +6087,10 @@
           <t>U6744008</t>
         </is>
       </c>
-      <c r="C123" s="2" t="n">
-        <v>44743</v>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -5893,8 +6133,10 @@
           <t>U6744008</t>
         </is>
       </c>
-      <c r="C124" s="2" t="n">
-        <v>44774</v>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -5937,8 +6179,10 @@
           <t>U6744008</t>
         </is>
       </c>
-      <c r="C125" s="2" t="n">
-        <v>44805</v>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -5981,8 +6225,10 @@
           <t>U6744008</t>
         </is>
       </c>
-      <c r="C126" s="2" t="n">
-        <v>44835</v>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -6025,8 +6271,10 @@
           <t>U6744008</t>
         </is>
       </c>
-      <c r="C127" s="2" t="n">
-        <v>44866</v>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -6069,8 +6317,10 @@
           <t>U6744008</t>
         </is>
       </c>
-      <c r="C128" s="2" t="n">
-        <v>44896</v>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -6113,8 +6363,10 @@
           <t>U6744008</t>
         </is>
       </c>
-      <c r="C129" s="2" t="n">
-        <v>44927</v>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -6157,8 +6409,10 @@
           <t>U6744008</t>
         </is>
       </c>
-      <c r="C130" s="2" t="n">
-        <v>44958</v>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -6201,8 +6455,10 @@
           <t>U6744008</t>
         </is>
       </c>
-      <c r="C131" s="2" t="n">
-        <v>44986</v>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -6245,8 +6501,10 @@
           <t>U6744008</t>
         </is>
       </c>
-      <c r="C132" s="2" t="n">
-        <v>45017</v>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -6289,8 +6547,10 @@
           <t>U6744008</t>
         </is>
       </c>
-      <c r="C133" s="2" t="n">
-        <v>45047</v>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -6335,8 +6595,10 @@
           <t>U6744007</t>
         </is>
       </c>
-      <c r="C134" s="2" t="n">
-        <v>44743</v>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -6379,8 +6641,10 @@
           <t>U6744007</t>
         </is>
       </c>
-      <c r="C135" s="2" t="n">
-        <v>44774</v>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -6423,8 +6687,10 @@
           <t>U6744007</t>
         </is>
       </c>
-      <c r="C136" s="2" t="n">
-        <v>44805</v>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -6467,8 +6733,10 @@
           <t>U6744007</t>
         </is>
       </c>
-      <c r="C137" s="2" t="n">
-        <v>44835</v>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -6511,8 +6779,10 @@
           <t>U6744007</t>
         </is>
       </c>
-      <c r="C138" s="2" t="n">
-        <v>44866</v>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -6555,8 +6825,10 @@
           <t>U6744007</t>
         </is>
       </c>
-      <c r="C139" s="2" t="n">
-        <v>44896</v>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -6599,8 +6871,10 @@
           <t>U6744007</t>
         </is>
       </c>
-      <c r="C140" s="2" t="n">
-        <v>44927</v>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -6643,8 +6917,10 @@
           <t>U6744007</t>
         </is>
       </c>
-      <c r="C141" s="2" t="n">
-        <v>44958</v>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -6687,8 +6963,10 @@
           <t>U6744007</t>
         </is>
       </c>
-      <c r="C142" s="2" t="n">
-        <v>44986</v>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -6731,8 +7009,10 @@
           <t>U6744007</t>
         </is>
       </c>
-      <c r="C143" s="2" t="n">
-        <v>45017</v>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -6775,8 +7055,10 @@
           <t>U6744007</t>
         </is>
       </c>
-      <c r="C144" s="2" t="n">
-        <v>45047</v>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -6821,8 +7103,10 @@
           <t>U1262018</t>
         </is>
       </c>
-      <c r="C145" s="2" t="n">
-        <v>44743</v>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -6865,8 +7149,10 @@
           <t>U1262018</t>
         </is>
       </c>
-      <c r="C146" s="2" t="n">
-        <v>44774</v>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -6909,8 +7195,10 @@
           <t>U1262018</t>
         </is>
       </c>
-      <c r="C147" s="2" t="n">
-        <v>44805</v>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -6953,8 +7241,10 @@
           <t>U1262018</t>
         </is>
       </c>
-      <c r="C148" s="2" t="n">
-        <v>44835</v>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -6997,8 +7287,10 @@
           <t>U1262018</t>
         </is>
       </c>
-      <c r="C149" s="2" t="n">
-        <v>44866</v>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -7041,8 +7333,10 @@
           <t>U1262018</t>
         </is>
       </c>
-      <c r="C150" s="2" t="n">
-        <v>44896</v>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -7085,8 +7379,10 @@
           <t>U1262018</t>
         </is>
       </c>
-      <c r="C151" s="2" t="n">
-        <v>44927</v>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -7129,8 +7425,10 @@
           <t>U1262018</t>
         </is>
       </c>
-      <c r="C152" s="2" t="n">
-        <v>44958</v>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -7173,8 +7471,10 @@
           <t>U1262018</t>
         </is>
       </c>
-      <c r="C153" s="2" t="n">
-        <v>44986</v>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -7217,8 +7517,10 @@
           <t>U1262018</t>
         </is>
       </c>
-      <c r="C154" s="2" t="n">
-        <v>45017</v>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -7261,8 +7563,10 @@
           <t>U1262018</t>
         </is>
       </c>
-      <c r="C155" s="2" t="n">
-        <v>45047</v>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -7307,8 +7611,10 @@
           <t>U1262015</t>
         </is>
       </c>
-      <c r="C156" s="2" t="n">
-        <v>44743</v>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -7351,8 +7657,10 @@
           <t>U1262015</t>
         </is>
       </c>
-      <c r="C157" s="2" t="n">
-        <v>44774</v>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -7395,8 +7703,10 @@
           <t>U1262015</t>
         </is>
       </c>
-      <c r="C158" s="2" t="n">
-        <v>44805</v>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -7439,8 +7749,10 @@
           <t>U1262015</t>
         </is>
       </c>
-      <c r="C159" s="2" t="n">
-        <v>44835</v>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -7483,8 +7795,10 @@
           <t>U1262015</t>
         </is>
       </c>
-      <c r="C160" s="2" t="n">
-        <v>44866</v>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -7527,8 +7841,10 @@
           <t>U1262015</t>
         </is>
       </c>
-      <c r="C161" s="2" t="n">
-        <v>44896</v>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -7571,8 +7887,10 @@
           <t>U1262015</t>
         </is>
       </c>
-      <c r="C162" s="2" t="n">
-        <v>44927</v>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -7615,8 +7933,10 @@
           <t>U1262015</t>
         </is>
       </c>
-      <c r="C163" s="2" t="n">
-        <v>44958</v>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -7659,8 +7979,10 @@
           <t>U1262015</t>
         </is>
       </c>
-      <c r="C164" s="2" t="n">
-        <v>44986</v>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -7703,8 +8025,10 @@
           <t>U1262015</t>
         </is>
       </c>
-      <c r="C165" s="2" t="n">
-        <v>45017</v>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -7747,8 +8071,10 @@
           <t>U1262015</t>
         </is>
       </c>
-      <c r="C166" s="2" t="n">
-        <v>45047</v>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -7793,8 +8119,10 @@
           <t>U1262014</t>
         </is>
       </c>
-      <c r="C167" s="2" t="n">
-        <v>44743</v>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -7837,8 +8165,10 @@
           <t>U1262014</t>
         </is>
       </c>
-      <c r="C168" s="2" t="n">
-        <v>44774</v>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -7881,8 +8211,10 @@
           <t>U1262014</t>
         </is>
       </c>
-      <c r="C169" s="2" t="n">
-        <v>44805</v>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -7925,8 +8257,10 @@
           <t>U1262014</t>
         </is>
       </c>
-      <c r="C170" s="2" t="n">
-        <v>44835</v>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -7969,8 +8303,10 @@
           <t>U1262014</t>
         </is>
       </c>
-      <c r="C171" s="2" t="n">
-        <v>44866</v>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -8013,8 +8349,10 @@
           <t>U1262014</t>
         </is>
       </c>
-      <c r="C172" s="2" t="n">
-        <v>44896</v>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -8057,8 +8395,10 @@
           <t>U1262014</t>
         </is>
       </c>
-      <c r="C173" s="2" t="n">
-        <v>44927</v>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -8101,8 +8441,10 @@
           <t>U1262014</t>
         </is>
       </c>
-      <c r="C174" s="2" t="n">
-        <v>44958</v>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -8145,8 +8487,10 @@
           <t>U1262014</t>
         </is>
       </c>
-      <c r="C175" s="2" t="n">
-        <v>44986</v>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -8189,8 +8533,10 @@
           <t>U1262014</t>
         </is>
       </c>
-      <c r="C176" s="2" t="n">
-        <v>45017</v>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -8233,8 +8579,10 @@
           <t>U1262014</t>
         </is>
       </c>
-      <c r="C177" s="2" t="n">
-        <v>45047</v>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -8279,8 +8627,10 @@
           <t>U1244003</t>
         </is>
       </c>
-      <c r="C178" s="2" t="n">
-        <v>44743</v>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -8323,8 +8673,10 @@
           <t>U1244003</t>
         </is>
       </c>
-      <c r="C179" s="2" t="n">
-        <v>44774</v>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -8367,8 +8719,10 @@
           <t>U1244003</t>
         </is>
       </c>
-      <c r="C180" s="2" t="n">
-        <v>44805</v>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -8411,8 +8765,10 @@
           <t>U1244003</t>
         </is>
       </c>
-      <c r="C181" s="2" t="n">
-        <v>44835</v>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -8455,8 +8811,10 @@
           <t>U1244003</t>
         </is>
       </c>
-      <c r="C182" s="2" t="n">
-        <v>44866</v>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -8499,8 +8857,10 @@
           <t>U1244003</t>
         </is>
       </c>
-      <c r="C183" s="2" t="n">
-        <v>44896</v>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -8543,8 +8903,10 @@
           <t>U1244003</t>
         </is>
       </c>
-      <c r="C184" s="2" t="n">
-        <v>44927</v>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -8587,8 +8949,10 @@
           <t>U1244003</t>
         </is>
       </c>
-      <c r="C185" s="2" t="n">
-        <v>44958</v>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -8631,8 +8995,10 @@
           <t>U1244003</t>
         </is>
       </c>
-      <c r="C186" s="2" t="n">
-        <v>44986</v>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -8675,8 +9041,10 @@
           <t>U1244003</t>
         </is>
       </c>
-      <c r="C187" s="2" t="n">
-        <v>45017</v>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D187" t="n">
         <v>10</v>
@@ -8719,8 +9087,10 @@
           <t>U1244003</t>
         </is>
       </c>
-      <c r="C188" s="2" t="n">
-        <v>45047</v>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -8765,8 +9135,10 @@
           <t>U0S67000</t>
         </is>
       </c>
-      <c r="C189" s="2" t="n">
-        <v>44743</v>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D189" t="n">
         <v>65</v>
@@ -8809,8 +9181,10 @@
           <t>U0S67000</t>
         </is>
       </c>
-      <c r="C190" s="2" t="n">
-        <v>44774</v>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D190" t="n">
         <v>65</v>
@@ -8853,8 +9227,10 @@
           <t>U0S67000</t>
         </is>
       </c>
-      <c r="C191" s="2" t="n">
-        <v>44805</v>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D191" t="n">
         <v>65</v>
@@ -8897,8 +9273,10 @@
           <t>U0S67000</t>
         </is>
       </c>
-      <c r="C192" s="2" t="n">
-        <v>44835</v>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D192" t="n">
         <v>65</v>
@@ -8941,8 +9319,10 @@
           <t>U0S67000</t>
         </is>
       </c>
-      <c r="C193" s="2" t="n">
-        <v>44866</v>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D193" t="n">
         <v>65</v>
@@ -8985,8 +9365,10 @@
           <t>U0S67000</t>
         </is>
       </c>
-      <c r="C194" s="2" t="n">
-        <v>44896</v>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D194" t="n">
         <v>65</v>
@@ -9029,8 +9411,10 @@
           <t>U0S67000</t>
         </is>
       </c>
-      <c r="C195" s="2" t="n">
-        <v>44927</v>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D195" t="n">
         <v>65</v>
@@ -9073,8 +9457,10 @@
           <t>U0S67000</t>
         </is>
       </c>
-      <c r="C196" s="2" t="n">
-        <v>44958</v>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D196" t="n">
         <v>65</v>
@@ -9117,8 +9503,10 @@
           <t>U0S67000</t>
         </is>
       </c>
-      <c r="C197" s="2" t="n">
-        <v>44986</v>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D197" t="n">
         <v>65</v>
@@ -9161,8 +9549,10 @@
           <t>U0S67000</t>
         </is>
       </c>
-      <c r="C198" s="2" t="n">
-        <v>45017</v>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D198" t="n">
         <v>65</v>
@@ -9205,8 +9595,10 @@
           <t>U0S67000</t>
         </is>
       </c>
-      <c r="C199" s="2" t="n">
-        <v>45047</v>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D199" t="n">
         <v>65</v>
@@ -9251,8 +9643,10 @@
           <t>U1244131</t>
         </is>
       </c>
-      <c r="C200" s="2" t="n">
-        <v>44743</v>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D200" t="n">
         <v>90</v>
@@ -9295,8 +9689,10 @@
           <t>U1244131</t>
         </is>
       </c>
-      <c r="C201" s="2" t="n">
-        <v>44774</v>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D201" t="n">
         <v>125</v>
@@ -9339,8 +9735,10 @@
           <t>U1244131</t>
         </is>
       </c>
-      <c r="C202" s="2" t="n">
-        <v>44805</v>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D202" t="n">
         <v>150</v>
@@ -9383,8 +9781,10 @@
           <t>U1244131</t>
         </is>
       </c>
-      <c r="C203" s="2" t="n">
-        <v>44835</v>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D203" t="n">
         <v>170</v>
@@ -9427,8 +9827,10 @@
           <t>U1244131</t>
         </is>
       </c>
-      <c r="C204" s="2" t="n">
-        <v>44866</v>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D204" t="n">
         <v>120</v>
@@ -9471,8 +9873,10 @@
           <t>U1244131</t>
         </is>
       </c>
-      <c r="C205" s="2" t="n">
-        <v>44896</v>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D205" t="n">
         <v>120</v>
@@ -9515,8 +9919,10 @@
           <t>U1244131</t>
         </is>
       </c>
-      <c r="C206" s="2" t="n">
-        <v>44927</v>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D206" t="n">
         <v>70</v>
@@ -9559,8 +9965,10 @@
           <t>U1244131</t>
         </is>
       </c>
-      <c r="C207" s="2" t="n">
-        <v>44958</v>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D207" t="n">
         <v>30</v>
@@ -9603,8 +10011,10 @@
           <t>U1244131</t>
         </is>
       </c>
-      <c r="C208" s="2" t="n">
-        <v>44986</v>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D208" t="n">
         <v>100</v>
@@ -9647,8 +10057,10 @@
           <t>U1244131</t>
         </is>
       </c>
-      <c r="C209" s="2" t="n">
-        <v>45017</v>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D209" t="n">
         <v>71.40000000000001</v>
@@ -9691,8 +10103,10 @@
           <t>U1244131</t>
         </is>
       </c>
-      <c r="C210" s="2" t="n">
-        <v>45047</v>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D210" t="n">
         <v>81.59999999999999</v>
@@ -9737,8 +10151,10 @@
           <t>U1255501</t>
         </is>
       </c>
-      <c r="C211" s="2" t="n">
-        <v>44743</v>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D211" t="n">
         <v>10</v>
@@ -9781,8 +10197,10 @@
           <t>U1255501</t>
         </is>
       </c>
-      <c r="C212" s="2" t="n">
-        <v>44774</v>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D212" t="n">
         <v>10</v>
@@ -9825,8 +10243,10 @@
           <t>U1255501</t>
         </is>
       </c>
-      <c r="C213" s="2" t="n">
-        <v>44805</v>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D213" t="n">
         <v>10</v>
@@ -9869,8 +10289,10 @@
           <t>U1255501</t>
         </is>
       </c>
-      <c r="C214" s="2" t="n">
-        <v>44835</v>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D214" t="n">
         <v>10</v>
@@ -9913,8 +10335,10 @@
           <t>U1255501</t>
         </is>
       </c>
-      <c r="C215" s="2" t="n">
-        <v>44866</v>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D215" t="n">
         <v>10</v>
@@ -9957,8 +10381,10 @@
           <t>U1255501</t>
         </is>
       </c>
-      <c r="C216" s="2" t="n">
-        <v>44896</v>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D216" t="n">
         <v>10</v>
@@ -10001,8 +10427,10 @@
           <t>U1255501</t>
         </is>
       </c>
-      <c r="C217" s="2" t="n">
-        <v>44927</v>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D217" t="n">
         <v>6</v>
@@ -10045,8 +10473,10 @@
           <t>U1255501</t>
         </is>
       </c>
-      <c r="C218" s="2" t="n">
-        <v>44958</v>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D218" t="n">
         <v>6</v>
@@ -10089,8 +10519,10 @@
           <t>U1255501</t>
         </is>
       </c>
-      <c r="C219" s="2" t="n">
-        <v>44986</v>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D219" t="n">
         <v>6</v>
@@ -10133,8 +10565,10 @@
           <t>U1255501</t>
         </is>
       </c>
-      <c r="C220" s="2" t="n">
-        <v>45017</v>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D220" t="n">
         <v>6</v>
@@ -10177,8 +10611,10 @@
           <t>U1255501</t>
         </is>
       </c>
-      <c r="C221" s="2" t="n">
-        <v>45047</v>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D221" t="n">
         <v>6</v>
@@ -10223,8 +10659,10 @@
           <t>U6755505</t>
         </is>
       </c>
-      <c r="C222" s="2" t="n">
-        <v>44743</v>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -10267,8 +10705,10 @@
           <t>U6755505</t>
         </is>
       </c>
-      <c r="C223" s="2" t="n">
-        <v>44774</v>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D223" t="n">
         <v>0</v>
@@ -10311,8 +10751,10 @@
           <t>U6755505</t>
         </is>
       </c>
-      <c r="C224" s="2" t="n">
-        <v>44805</v>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -10355,8 +10797,10 @@
           <t>U6755505</t>
         </is>
       </c>
-      <c r="C225" s="2" t="n">
-        <v>44835</v>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -10399,8 +10843,10 @@
           <t>U6755505</t>
         </is>
       </c>
-      <c r="C226" s="2" t="n">
-        <v>44866</v>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D226" t="n">
         <v>0</v>
@@ -10443,8 +10889,10 @@
           <t>U6755505</t>
         </is>
       </c>
-      <c r="C227" s="2" t="n">
-        <v>44896</v>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D227" t="n">
         <v>0</v>
@@ -10487,8 +10935,10 @@
           <t>U6755505</t>
         </is>
       </c>
-      <c r="C228" s="2" t="n">
-        <v>44927</v>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -10531,8 +10981,10 @@
           <t>U6755505</t>
         </is>
       </c>
-      <c r="C229" s="2" t="n">
-        <v>44958</v>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D229" t="n">
         <v>0</v>
@@ -10575,8 +11027,10 @@
           <t>U6755505</t>
         </is>
       </c>
-      <c r="C230" s="2" t="n">
-        <v>44986</v>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -10619,8 +11073,10 @@
           <t>U6755505</t>
         </is>
       </c>
-      <c r="C231" s="2" t="n">
-        <v>45017</v>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D231" t="n">
         <v>0</v>
@@ -10663,8 +11119,10 @@
           <t>U6755505</t>
         </is>
       </c>
-      <c r="C232" s="2" t="n">
-        <v>45047</v>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D232" t="n">
         <v>0</v>
@@ -10709,8 +11167,10 @@
           <t>U1244147</t>
         </is>
       </c>
-      <c r="C233" s="2" t="n">
-        <v>44743</v>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D233" t="n">
         <v>350</v>
@@ -10753,8 +11213,10 @@
           <t>U1244147</t>
         </is>
       </c>
-      <c r="C234" s="2" t="n">
-        <v>44774</v>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D234" t="n">
         <v>400</v>
@@ -10797,8 +11259,10 @@
           <t>U1244147</t>
         </is>
       </c>
-      <c r="C235" s="2" t="n">
-        <v>44805</v>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D235" t="n">
         <v>420</v>
@@ -10841,8 +11305,10 @@
           <t>U1244147</t>
         </is>
       </c>
-      <c r="C236" s="2" t="n">
-        <v>44835</v>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D236" t="n">
         <v>490</v>
@@ -10885,8 +11351,10 @@
           <t>U1244147</t>
         </is>
       </c>
-      <c r="C237" s="2" t="n">
-        <v>44866</v>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D237" t="n">
         <v>473</v>
@@ -10929,8 +11397,10 @@
           <t>U1244147</t>
         </is>
       </c>
-      <c r="C238" s="2" t="n">
-        <v>44896</v>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D238" t="n">
         <v>470</v>
@@ -10973,8 +11443,10 @@
           <t>U1244147</t>
         </is>
       </c>
-      <c r="C239" s="2" t="n">
-        <v>44927</v>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D239" t="n">
         <v>235</v>
@@ -11017,8 +11489,10 @@
           <t>U1244147</t>
         </is>
       </c>
-      <c r="C240" s="2" t="n">
-        <v>44958</v>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D240" t="n">
         <v>200</v>
@@ -11061,8 +11535,10 @@
           <t>U1244147</t>
         </is>
       </c>
-      <c r="C241" s="2" t="n">
-        <v>44986</v>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D241" t="n">
         <v>580</v>
@@ -11105,8 +11581,10 @@
           <t>U1244147</t>
         </is>
       </c>
-      <c r="C242" s="2" t="n">
-        <v>45017</v>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D242" t="n">
         <v>400</v>
@@ -11149,8 +11627,10 @@
           <t>U1244147</t>
         </is>
       </c>
-      <c r="C243" s="2" t="n">
-        <v>45047</v>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D243" t="n">
         <v>450</v>
@@ -11195,8 +11675,10 @@
           <t>FCBY0002</t>
         </is>
       </c>
-      <c r="C244" s="2" t="n">
-        <v>44743</v>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
       </c>
       <c r="D244" t="n">
         <v>0</v>
@@ -11239,8 +11721,10 @@
           <t>FCBY0002</t>
         </is>
       </c>
-      <c r="C245" s="2" t="n">
-        <v>44774</v>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>AUG 2022</t>
+        </is>
       </c>
       <c r="D245" t="n">
         <v>0</v>
@@ -11283,8 +11767,10 @@
           <t>FCBY0002</t>
         </is>
       </c>
-      <c r="C246" s="2" t="n">
-        <v>44805</v>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
       </c>
       <c r="D246" t="n">
         <v>0</v>
@@ -11327,8 +11813,10 @@
           <t>FCBY0002</t>
         </is>
       </c>
-      <c r="C247" s="2" t="n">
-        <v>44835</v>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>OCT 2022</t>
+        </is>
       </c>
       <c r="D247" t="n">
         <v>0</v>
@@ -11371,8 +11859,10 @@
           <t>FCBY0002</t>
         </is>
       </c>
-      <c r="C248" s="2" t="n">
-        <v>44866</v>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>NOV 2022</t>
+        </is>
       </c>
       <c r="D248" t="n">
         <v>0</v>
@@ -11413,8 +11903,10 @@
           <t>FCBY0002</t>
         </is>
       </c>
-      <c r="C249" s="2" t="n">
-        <v>44896</v>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
       </c>
       <c r="D249" t="n">
         <v>0</v>
@@ -11449,8 +11941,10 @@
           <t>FCBY0002</t>
         </is>
       </c>
-      <c r="C250" s="2" t="n">
-        <v>44927</v>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>JAN 2023</t>
+        </is>
       </c>
       <c r="D250" t="n">
         <v>0</v>
@@ -11489,8 +11983,10 @@
           <t>FCBY0002</t>
         </is>
       </c>
-      <c r="C251" s="2" t="n">
-        <v>44958</v>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>FEB 2023</t>
+        </is>
       </c>
       <c r="D251" t="n">
         <v>0</v>
@@ -11529,8 +12025,10 @@
           <t>FCBY0002</t>
         </is>
       </c>
-      <c r="C252" s="2" t="n">
-        <v>44986</v>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>MAR 2023</t>
+        </is>
       </c>
       <c r="D252" t="n">
         <v>0</v>
@@ -11569,8 +12067,10 @@
           <t>FCBY0002</t>
         </is>
       </c>
-      <c r="C253" s="2" t="n">
-        <v>45017</v>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>APR 2023</t>
+        </is>
       </c>
       <c r="D253" t="n">
         <v>0</v>
@@ -11609,8 +12109,10 @@
           <t>FCBY0002</t>
         </is>
       </c>
-      <c r="C254" s="2" t="n">
-        <v>45047</v>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>MAY 2023</t>
+        </is>
       </c>
       <c r="D254" t="n">
         <v>0</v>
